--- a/src/Components/JobList/jobrecord.xlsx
+++ b/src/Components/JobList/jobrecord.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P265"/>
+  <dimension ref="A1:P266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16824,10 +16824,8 @@
       <c r="P264" t="inlineStr"/>
     </row>
     <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>1647589</t>
-        </is>
+      <c r="A265" t="n">
+        <v>1647589</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -16889,6 +16887,72 @@
         </is>
       </c>
     </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>6453846</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>4 years</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Bscsit</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>10K-20K</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>Kathmanduu</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Temporary</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Software Designing</t>
+        </is>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>Designer</t>
+        </is>
+      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>they design both the frontend and the backend</t>
+        </is>
+      </c>
+      <c r="L266" t="inlineStr"/>
+      <c r="M266" t="inlineStr"/>
+      <c r="N266" t="inlineStr"/>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="P266" t="inlineStr">
+        <is>
+          <t>Figma,Flutter</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
